--- a/bms-site/src/main/webapp/WEB-INF/templates/storage/out_stock_pack_material_template.xlsx
+++ b/bms-site/src/main/webapp/WEB-INF/templates/storage/out_stock_pack_material_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>商家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>防水袋数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,34 +451,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" customWidth="1"/>
     <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
     <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.125" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -482,42 +487,45 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
